--- a/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 28_it_IT.xlsx
+++ b/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 28_it_IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2df41c4215c7d11/VolumesExcel/it_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/DocumentenLaptop/Programming/Github/DanielNoord/ProjectInventarisGezantschappen/inputs/VolumesExcel_06_07_2022/it_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_A46DD96910F254D1C9E0951545184E78697E542D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB261D40-FF4C-4A50-BBA1-05B99DA3E164}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B4F5B-0E7C-B649-8994-75A71D17D9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="393">
   <si>
     <t>ms303_title</t>
   </si>
@@ -1198,6 +1198,9 @@
   </si>
   <si>
     <t>"Sagra Consulta. Sentenza. 17 settembre 1850" relativa al tentato assassinio con promessa di danaro indeterminata per ispirito di setta a danno del $Nardoni</t>
+  </si>
+  <si>
+    <t>ms303_25_2_00</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -1301,7 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1310,10 +1312,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1332,9 +1330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1372,9 +1370,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1407,26 +1405,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1459,26 +1440,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1652,23 +1616,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J693"/>
+  <dimension ref="A1:J694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="91" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="91" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="78.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="55.453125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="78.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="55.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1682,7 +1646,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1696,90 +1660,90 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1757,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1801,7 +1765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1824,7 +1788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1832,7 +1796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1840,7 +1804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1871,7 +1835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1894,7 +1858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1902,7 +1866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1925,7 +1889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1971,7 +1935,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1994,7 +1958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2017,7 +1981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2040,7 +2004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2063,7 +2027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2086,7 +2050,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2094,7 +2058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2102,7 +2066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2125,7 +2089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2142,7 +2106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -2159,7 +2123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2182,7 +2146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2196,7 +2160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2219,7 +2183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2242,7 +2206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -2265,7 +2229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -2288,7 +2252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2311,7 +2275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -2325,7 +2289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -2348,7 +2312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2371,7 +2335,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
@@ -2394,7 +2358,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -2408,7 +2372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -2416,7 +2380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -2439,7 +2403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -2462,7 +2426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -2485,7 +2449,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2508,7 +2472,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2531,7 +2495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -2542,7 +2506,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2553,7 +2517,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -2567,7 +2531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -2575,7 +2539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -2601,7 +2565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -2609,7 +2573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -2623,7 +2587,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -2646,7 +2610,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -2669,7 +2633,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>111</v>
       </c>
@@ -2692,7 +2656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -2703,7 +2667,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -2726,7 +2690,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -2749,7 +2713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -2772,7 +2736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -2780,7 +2744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -2803,7 +2767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -2811,7 +2775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -2834,7 +2798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -2857,7 +2821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -2883,7 +2847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -2897,7 +2861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -2920,7 +2884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>130</v>
       </c>
@@ -2934,7 +2898,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>132</v>
       </c>
@@ -2957,7 +2921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>133</v>
       </c>
@@ -2965,7 +2929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -2988,7 +2952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -3008,7 +2972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -3028,7 +2992,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>139</v>
       </c>
@@ -3048,7 +3012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>140</v>
       </c>
@@ -3068,7 +3032,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -3088,7 +3052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -3105,7 +3069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -3113,7 +3077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>147</v>
       </c>
@@ -3123,9 +3087,9 @@
       <c r="C87" s="6">
         <v>1850</v>
       </c>
-      <c r="J87" s="14"/>
-    </row>
-    <row r="88" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J87" s="13"/>
+    </row>
+    <row r="88" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -3133,7 +3097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -3156,7 +3120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -3164,7 +3128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -3187,7 +3151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -3210,7 +3174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -3233,7 +3197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -3247,7 +3211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -3270,7 +3234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -3293,7 +3257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -3304,7 +3268,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -3315,11 +3279,11 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="1:9" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="13" t="s">
+    <row r="100" spans="1:9" s="12" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3332,34 +3296,28 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>392</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>163</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>165</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C102">
-        <v>1849</v>
-      </c>
-      <c r="G102" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>164</v>
@@ -3371,72 +3329,75 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104">
+        <v>1849</v>
+      </c>
+      <c r="G104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="106" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>1849</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>10</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="107" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>170</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B107" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="108" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>171</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B108" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I108" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="109" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B109" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="110" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>175</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C109">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>177</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>176</v>
@@ -3445,9 +3406,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>176</v>
@@ -3456,34 +3417,28 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C112">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>179</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B113" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>180</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113">
-        <v>1849</v>
-      </c>
-      <c r="D113">
-        <v>4</v>
-      </c>
-      <c r="E113">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>182</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>181</v>
@@ -3498,51 +3453,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C115">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1849</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+      <c r="E115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>184</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>185</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117">
-        <v>1850</v>
-      </c>
-      <c r="D117">
-        <v>9</v>
-      </c>
-      <c r="E117">
-        <v>19</v>
-      </c>
-      <c r="F117" t="s">
-        <v>187</v>
-      </c>
-      <c r="G117" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>189</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>186</v>
@@ -3563,9 +3512,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>186</v>
@@ -3574,58 +3523,58 @@
         <v>1850</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G119" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>190</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120">
+        <v>1850</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>191</v>
+      </c>
+      <c r="G120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>192</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B121" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C120">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="C121">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>193</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B122" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="C121">
-        <v>1850</v>
-      </c>
-      <c r="D121">
-        <v>11</v>
-      </c>
-      <c r="E121">
-        <v>28</v>
-      </c>
-      <c r="F121" t="s">
-        <v>28</v>
-      </c>
-      <c r="G121" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>196</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="C122">
         <v>1850</v>
@@ -3633,36 +3582,36 @@
       <c r="D122">
         <v>11</v>
       </c>
-      <c r="H122" t="s">
+      <c r="E122">
+        <v>28</v>
+      </c>
+      <c r="F122" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123">
+        <v>1850</v>
+      </c>
+      <c r="D123">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>198</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C123">
-        <v>1850</v>
-      </c>
-      <c r="D123">
-        <v>12</v>
-      </c>
-      <c r="E123">
-        <v>16</v>
-      </c>
-      <c r="F123" t="s">
-        <v>200</v>
-      </c>
-      <c r="H123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>202</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>199</v>
@@ -3683,12 +3632,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>203</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>181</v>
+        <v>202</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C125">
         <v>1850</v>
@@ -3697,12 +3646,18 @@
         <v>12</v>
       </c>
       <c r="E125">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="F125" t="s">
+        <v>200</v>
+      </c>
+      <c r="H125" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>181</v>
@@ -3717,20 +3672,26 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>204</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127">
+        <v>1850</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>205</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C127">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>207</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>206</v>
@@ -3739,85 +3700,82 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>207</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>208</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B130" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="131" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>210</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B131" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+    <row r="132" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>212</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B132" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="133" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>213</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C132">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="C133">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+    <row r="135" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>216</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B135" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I135" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+    <row r="136" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>219</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+    <row r="137" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>220</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C136">
-        <v>1850</v>
-      </c>
-      <c r="H136" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>222</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>221</v>
@@ -3829,20 +3787,23 @@
         <v>201</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C138">
+        <v>1850</v>
+      </c>
+      <c r="H138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>223</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C138">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>225</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>224</v>
@@ -3851,9 +3812,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>224</v>
@@ -3862,9 +3823,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>224</v>
@@ -3873,20 +3834,20 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C142">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>228</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C142">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>230</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>229</v>
@@ -3895,9 +3856,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>229</v>
@@ -3906,9 +3867,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>229</v>
@@ -3917,20 +3878,20 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>233</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C146">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>235</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>234</v>
@@ -3939,853 +3900,847 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>235</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C148">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>236</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+    <row r="150" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>238</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B150" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="9"/>
-    </row>
-    <row r="151" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="8" t="s">
+    <row r="151" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C151">
-        <v>1848</v>
-      </c>
-      <c r="D151">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C152">
+        <v>1848</v>
+      </c>
+      <c r="D152">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B182" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="8" t="s">
+    <row r="183" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="8" t="s">
+    <row r="184" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B184" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="8" t="s">
+    <row r="185" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B185" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="8" t="s">
+    <row r="186" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="8" t="s">
-        <v>282</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="8" t="s">
-        <v>285</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="8" t="s">
-        <v>302</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B207" s="9" t="s">
+      <c r="B208" s="9" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="8" t="s">
+    <row r="209" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="B211" s="9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="8" t="s">
-        <v>337</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="224" spans="1:10" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="17" t="s">
+    <row r="224" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B224" s="18" t="s">
+      <c r="B225" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I224" s="19" t="s">
+      <c r="I225" t="s">
         <v>339</v>
       </c>
-      <c r="J224" s="20"/>
-    </row>
-    <row r="225" spans="1:10" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="17" t="s">
+    </row>
+    <row r="226" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B225" s="18" t="s">
+      <c r="B226" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I225" s="19" t="s">
+      <c r="I226" t="s">
         <v>339</v>
       </c>
-      <c r="J225" s="20"/>
-    </row>
-    <row r="226" spans="1:10" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="17" t="s">
+    </row>
+    <row r="227" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B226" s="18" t="s">
+      <c r="B227" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I226" s="19" t="s">
+      <c r="I227" t="s">
         <v>339</v>
       </c>
-      <c r="J226" s="20"/>
-    </row>
-    <row r="227" spans="1:10" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="17" t="s">
+    </row>
+    <row r="228" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B228" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I227" s="19" t="s">
+      <c r="I228" t="s">
         <v>339</v>
       </c>
-      <c r="J227" s="20"/>
-    </row>
-    <row r="228" spans="1:10" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="17" t="s">
+    </row>
+    <row r="229" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B228" s="18" t="s">
+      <c r="B229" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I228" s="19" t="s">
+      <c r="I229" t="s">
         <v>339</v>
       </c>
-      <c r="J228" s="20"/>
-    </row>
-    <row r="229" spans="1:10" s="19" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="17" t="s">
+    </row>
+    <row r="230" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B229" s="18" t="s">
+      <c r="B230" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="I229" s="19" t="s">
+      <c r="I230" t="s">
         <v>339</v>
       </c>
-      <c r="J229" s="20"/>
-    </row>
-    <row r="230" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="8" t="s">
+    </row>
+    <row r="231" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
         <v>355</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="240" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="11" t="s">
+    <row r="240" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B240" s="12" t="s">
+      <c r="B241" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J240" s="13"/>
-    </row>
-    <row r="241" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="11" t="s">
+      <c r="J241" s="12"/>
+    </row>
+    <row r="242" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B241" s="12" t="s">
+      <c r="B242" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J241" s="13"/>
-    </row>
-    <row r="242" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="11" t="s">
+      <c r="J242" s="12"/>
+    </row>
+    <row r="243" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B243" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J242" s="13"/>
-    </row>
-    <row r="243" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="11" t="s">
+      <c r="J243" s="12"/>
+    </row>
+    <row r="244" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B244" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J243" s="13"/>
-    </row>
-    <row r="244" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="11" t="s">
+      <c r="J244" s="12"/>
+    </row>
+    <row r="245" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="B244" s="12" t="s">
+      <c r="B245" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J244" s="13"/>
-    </row>
-    <row r="245" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="11" t="s">
+      <c r="J245" s="12"/>
+    </row>
+    <row r="246" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B245" s="12" t="s">
+      <c r="B246" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J245" s="13"/>
-    </row>
-    <row r="246" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="11" t="s">
+      <c r="J246" s="12"/>
+    </row>
+    <row r="247" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B246" s="12" t="s">
+      <c r="B247" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J246" s="13"/>
-    </row>
-    <row r="247" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="11" t="s">
+      <c r="J247" s="12"/>
+    </row>
+    <row r="248" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="B248" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="J247" s="13"/>
-    </row>
-    <row r="248" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="8" t="s">
+      <c r="J248" s="12"/>
+    </row>
+    <row r="249" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G248" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="8" t="s">
-        <v>369</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>368</v>
@@ -4794,1514 +4749,1525 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G250" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="8" t="s">
-        <v>372</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
         <v>373</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="8" t="s">
-        <v>375</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="8"/>
-      <c r="B269" s="9"/>
-    </row>
-    <row r="270" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8"/>
       <c r="B270" s="9"/>
     </row>
-    <row r="271" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="8"/>
-      <c r="B271" s="4"/>
-    </row>
-    <row r="272" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B271" s="9"/>
+    </row>
+    <row r="272" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8"/>
-      <c r="B272" s="9"/>
-    </row>
-    <row r="273" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="4"/>
+    </row>
+    <row r="273" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="8"/>
-      <c r="B273" s="4"/>
-    </row>
-    <row r="274" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B273" s="9"/>
+    </row>
+    <row r="274" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8"/>
       <c r="B274" s="4"/>
     </row>
-    <row r="275" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="8"/>
-      <c r="B275" s="9"/>
-    </row>
-    <row r="276" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B275" s="4"/>
+    </row>
+    <row r="276" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8"/>
       <c r="B276" s="9"/>
     </row>
-    <row r="277" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="8"/>
       <c r="B277" s="9"/>
     </row>
-    <row r="278" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8"/>
       <c r="B278" s="9"/>
     </row>
-    <row r="279" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="8"/>
-      <c r="B279" s="4"/>
-    </row>
-    <row r="280" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="9"/>
+    </row>
+    <row r="280" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8"/>
       <c r="B280" s="4"/>
     </row>
-    <row r="281" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="8"/>
-      <c r="B281" s="9"/>
-    </row>
-    <row r="282" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B281" s="4"/>
+    </row>
+    <row r="282" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8"/>
-      <c r="B282" s="4"/>
-    </row>
-    <row r="283" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B282" s="9"/>
+    </row>
+    <row r="283" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="8"/>
-      <c r="B283" s="9"/>
-    </row>
-    <row r="284" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B283" s="4"/>
+    </row>
+    <row r="284" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8"/>
       <c r="B284" s="9"/>
     </row>
-    <row r="285" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="8"/>
       <c r="B285" s="9"/>
     </row>
-    <row r="286" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8"/>
       <c r="B286" s="9"/>
     </row>
-    <row r="287" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="8"/>
-      <c r="B287" s="4"/>
-    </row>
-    <row r="288" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="9"/>
+    </row>
+    <row r="288" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="8"/>
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="8"/>
       <c r="B289" s="4"/>
     </row>
-    <row r="290" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8"/>
       <c r="B290" s="4"/>
     </row>
-    <row r="291" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="8"/>
       <c r="B291" s="4"/>
     </row>
-    <row r="292" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8"/>
-      <c r="B292" s="9"/>
-    </row>
-    <row r="293" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B292" s="4"/>
+    </row>
+    <row r="293" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="8"/>
       <c r="B293" s="9"/>
     </row>
-    <row r="294" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="8"/>
       <c r="B294" s="9"/>
     </row>
-    <row r="295" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="8"/>
-      <c r="B295" s="4"/>
-    </row>
-    <row r="296" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B295" s="9"/>
+    </row>
+    <row r="296" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8"/>
       <c r="B296" s="4"/>
     </row>
-    <row r="297" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="8"/>
-      <c r="B297" s="9"/>
-    </row>
-    <row r="298" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B297" s="4"/>
+    </row>
+    <row r="298" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8"/>
       <c r="B298" s="9"/>
     </row>
-    <row r="299" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="8"/>
       <c r="B299" s="9"/>
     </row>
-    <row r="300" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8"/>
-      <c r="B300" s="4"/>
-    </row>
-    <row r="301" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B300" s="9"/>
+    </row>
+    <row r="301" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="8"/>
-      <c r="B301" s="9"/>
-    </row>
-    <row r="302" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="4"/>
+    </row>
+    <row r="302" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8"/>
       <c r="B302" s="9"/>
     </row>
-    <row r="303" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="8"/>
       <c r="B303" s="9"/>
     </row>
-    <row r="304" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8"/>
       <c r="B304" s="9"/>
     </row>
-    <row r="305" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="8"/>
       <c r="B305" s="9"/>
     </row>
-    <row r="306" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8"/>
       <c r="B306" s="9"/>
     </row>
-    <row r="307" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="8"/>
       <c r="B307" s="9"/>
     </row>
-    <row r="308" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8"/>
       <c r="B308" s="9"/>
     </row>
-    <row r="309" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="8"/>
       <c r="B309" s="9"/>
     </row>
-    <row r="310" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8"/>
       <c r="B310" s="9"/>
     </row>
-    <row r="311" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="8"/>
       <c r="B311" s="9"/>
     </row>
-    <row r="312" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8"/>
       <c r="B312" s="9"/>
     </row>
-    <row r="313" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="8"/>
-      <c r="B313" s="1"/>
-    </row>
-    <row r="314" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B313" s="9"/>
+    </row>
+    <row r="314" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8"/>
-      <c r="B314" s="9"/>
-    </row>
-    <row r="315" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="1"/>
+    </row>
+    <row r="315" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="8"/>
       <c r="B315" s="9"/>
     </row>
-    <row r="316" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="8"/>
       <c r="B316" s="9"/>
     </row>
-    <row r="317" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="9"/>
     </row>
-    <row r="318" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="9"/>
     </row>
-    <row r="319" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="9"/>
     </row>
-    <row r="320" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="9"/>
     </row>
-    <row r="321" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="9"/>
     </row>
-    <row r="322" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="9"/>
     </row>
-    <row r="323" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="9"/>
     </row>
-    <row r="324" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="9"/>
     </row>
-    <row r="325" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="9"/>
     </row>
-    <row r="326" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="9"/>
     </row>
-    <row r="327" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="9"/>
     </row>
-    <row r="328" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="9"/>
     </row>
-    <row r="329" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="9"/>
     </row>
-    <row r="330" spans="2:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="9"/>
-      <c r="J330" s="13"/>
-    </row>
-    <row r="331" spans="2:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="2:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="9"/>
-      <c r="J331" s="13"/>
-    </row>
-    <row r="332" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J331" s="12"/>
+    </row>
+    <row r="332" spans="2:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="9"/>
-    </row>
-    <row r="333" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J332" s="12"/>
+    </row>
+    <row r="333" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="9"/>
     </row>
-    <row r="334" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="9"/>
     </row>
-    <row r="335" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="9"/>
     </row>
-    <row r="336" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="9"/>
     </row>
-    <row r="337" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="9"/>
     </row>
-    <row r="338" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="9"/>
     </row>
-    <row r="339" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="9"/>
     </row>
-    <row r="340" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="9"/>
     </row>
-    <row r="341" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="9"/>
     </row>
-    <row r="342" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="9"/>
     </row>
-    <row r="343" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="9"/>
     </row>
-    <row r="344" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="9"/>
-      <c r="C344" s="8"/>
-    </row>
-    <row r="345" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="345" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="9"/>
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="9"/>
-    </row>
-    <row r="347" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C346" s="8"/>
+    </row>
+    <row r="347" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="9"/>
     </row>
-    <row r="348" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="9"/>
     </row>
-    <row r="349" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="9"/>
     </row>
-    <row r="350" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="9"/>
     </row>
-    <row r="351" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="9"/>
     </row>
-    <row r="352" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="9"/>
     </row>
-    <row r="353" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="9"/>
     </row>
-    <row r="354" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="9"/>
     </row>
-    <row r="355" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="9"/>
     </row>
-    <row r="356" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="9"/>
     </row>
-    <row r="357" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="9"/>
     </row>
-    <row r="358" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="9"/>
     </row>
-    <row r="359" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="9"/>
-      <c r="C359" s="8"/>
-    </row>
-    <row r="360" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="360" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="9"/>
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="9"/>
-    </row>
-    <row r="362" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C361" s="8"/>
+    </row>
+    <row r="362" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="9"/>
     </row>
-    <row r="363" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="9"/>
     </row>
-    <row r="364" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="9"/>
     </row>
-    <row r="365" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="9"/>
     </row>
-    <row r="366" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="9"/>
     </row>
-    <row r="367" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="9"/>
     </row>
-    <row r="368" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="9"/>
     </row>
-    <row r="369" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="9"/>
     </row>
-    <row r="370" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="9"/>
     </row>
-    <row r="371" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="9"/>
     </row>
-    <row r="372" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="9"/>
     </row>
-    <row r="373" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="9"/>
     </row>
-    <row r="374" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="9"/>
-      <c r="C374" s="8"/>
-    </row>
-    <row r="375" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="375" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="9"/>
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="9"/>
-    </row>
-    <row r="377" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C376" s="8"/>
+    </row>
+    <row r="377" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="9"/>
     </row>
-    <row r="378" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="9"/>
     </row>
-    <row r="379" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="9"/>
     </row>
-    <row r="380" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="9"/>
     </row>
-    <row r="381" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="9"/>
-      <c r="C381" s="8"/>
-    </row>
-    <row r="382" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="382" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="9"/>
       <c r="C382" s="8"/>
     </row>
-    <row r="383" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="9"/>
-    </row>
-    <row r="384" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C383" s="8"/>
+    </row>
+    <row r="384" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="9"/>
     </row>
-    <row r="385" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="9"/>
     </row>
-    <row r="386" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="9"/>
     </row>
-    <row r="387" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="9"/>
     </row>
-    <row r="388" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="9"/>
     </row>
-    <row r="389" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="9"/>
     </row>
-    <row r="390" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="9"/>
-      <c r="C390" s="8"/>
-    </row>
-    <row r="391" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="391" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="9"/>
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="9"/>
-    </row>
-    <row r="393" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C392" s="8"/>
+    </row>
+    <row r="393" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="9"/>
     </row>
-    <row r="394" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="9"/>
     </row>
-    <row r="395" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="9"/>
     </row>
-    <row r="396" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="9"/>
     </row>
-    <row r="397" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="4"/>
-      <c r="C397" s="8"/>
-    </row>
-    <row r="398" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="9"/>
+    <row r="397" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="9"/>
+    </row>
+    <row r="398" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="4"/>
       <c r="C398" s="8"/>
     </row>
-    <row r="399" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="9"/>
-    </row>
-    <row r="400" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C399" s="8"/>
+    </row>
+    <row r="400" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="9"/>
     </row>
-    <row r="401" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="9"/>
     </row>
-    <row r="402" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="9"/>
     </row>
-    <row r="403" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="9"/>
     </row>
-    <row r="404" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="9"/>
     </row>
-    <row r="405" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="9"/>
     </row>
-    <row r="406" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="9"/>
     </row>
-    <row r="407" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="9"/>
     </row>
-    <row r="408" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="9"/>
     </row>
-    <row r="409" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="9"/>
     </row>
-    <row r="410" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="9"/>
-      <c r="C410" s="8"/>
-    </row>
-    <row r="411" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="411" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="9"/>
-    </row>
-    <row r="412" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C411" s="8"/>
+    </row>
+    <row r="412" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="9"/>
     </row>
-    <row r="413" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="9"/>
-      <c r="C413" s="8"/>
-    </row>
-    <row r="414" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="414" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="9"/>
-    </row>
-    <row r="415" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C414" s="8"/>
+    </row>
+    <row r="415" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="9"/>
     </row>
-    <row r="416" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="9"/>
-      <c r="C416" s="8"/>
-    </row>
-    <row r="417" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="417" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="9"/>
-    </row>
-    <row r="418" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C417" s="8"/>
+    </row>
+    <row r="418" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="9"/>
     </row>
-    <row r="419" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="9"/>
-      <c r="C419" s="8"/>
-    </row>
-    <row r="420" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="420" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="9"/>
-    </row>
-    <row r="421" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C420" s="8"/>
+    </row>
+    <row r="421" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="9"/>
     </row>
-    <row r="422" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="9"/>
-      <c r="C422" s="8"/>
-    </row>
-    <row r="423" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="423" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="9"/>
-    </row>
-    <row r="424" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C423" s="8"/>
+    </row>
+    <row r="424" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="9"/>
     </row>
-    <row r="425" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="9"/>
-      <c r="C425" s="8"/>
-    </row>
-    <row r="426" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="426" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="9"/>
-    </row>
-    <row r="427" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C426" s="8"/>
+    </row>
+    <row r="427" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="9"/>
     </row>
-    <row r="428" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="9"/>
-      <c r="C428" s="8"/>
-    </row>
-    <row r="429" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="429" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="9"/>
-    </row>
-    <row r="430" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C429" s="8"/>
+    </row>
+    <row r="430" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="9"/>
     </row>
-    <row r="431" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="9"/>
     </row>
-    <row r="432" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="9"/>
-      <c r="C432" s="8"/>
-    </row>
-    <row r="433" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="433" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="9"/>
-    </row>
-    <row r="434" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C433" s="8"/>
+    </row>
+    <row r="434" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="9"/>
     </row>
-    <row r="435" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="9"/>
-      <c r="C435" s="8"/>
-    </row>
-    <row r="436" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="436" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="9"/>
-    </row>
-    <row r="437" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C436" s="8"/>
+    </row>
+    <row r="437" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="9"/>
     </row>
-    <row r="438" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="9"/>
     </row>
-    <row r="439" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="9"/>
     </row>
-    <row r="440" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="9"/>
     </row>
-    <row r="441" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="9"/>
     </row>
-    <row r="442" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="9"/>
     </row>
-    <row r="443" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="9"/>
     </row>
-    <row r="444" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B444" s="4"/>
-    </row>
-    <row r="445" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B444" s="9"/>
+    </row>
+    <row r="445" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="4"/>
     </row>
-    <row r="446" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B446" s="9"/>
-    </row>
-    <row r="447" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B446" s="4"/>
+    </row>
+    <row r="447" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="9"/>
     </row>
-    <row r="448" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="9"/>
     </row>
-    <row r="449" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="9"/>
     </row>
-    <row r="450" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="9"/>
     </row>
-    <row r="451" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="9"/>
     </row>
-    <row r="452" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="9"/>
     </row>
-    <row r="453" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="9"/>
     </row>
-    <row r="454" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="9"/>
     </row>
-    <row r="455" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="9"/>
     </row>
-    <row r="456" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="9"/>
     </row>
-    <row r="457" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="9"/>
     </row>
-    <row r="458" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="9"/>
     </row>
-    <row r="459" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="9"/>
     </row>
-    <row r="460" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="9"/>
     </row>
-    <row r="461" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="9"/>
     </row>
-    <row r="462" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="9"/>
     </row>
-    <row r="463" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="9"/>
     </row>
-    <row r="464" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="9"/>
     </row>
-    <row r="465" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="9"/>
     </row>
-    <row r="466" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="9"/>
     </row>
-    <row r="467" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="9"/>
     </row>
-    <row r="468" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="9"/>
     </row>
-    <row r="469" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="9"/>
     </row>
-    <row r="470" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="9"/>
     </row>
-    <row r="471" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="9"/>
     </row>
-    <row r="472" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="9"/>
     </row>
-    <row r="473" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="9"/>
     </row>
-    <row r="474" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="9"/>
     </row>
-    <row r="475" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="9"/>
     </row>
-    <row r="476" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="9"/>
     </row>
-    <row r="477" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="9"/>
     </row>
-    <row r="478" spans="2:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B478" s="3"/>
-      <c r="J478" s="13"/>
-    </row>
-    <row r="479" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B478" s="9"/>
+    </row>
+    <row r="479" spans="2:10" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="3"/>
-      <c r="F479" s="8"/>
-    </row>
-    <row r="480" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J479" s="12"/>
+    </row>
+    <row r="480" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="3"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="3"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B482" s="9"/>
+    <row r="482" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B482" s="3"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="9"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="9"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B485" s="1"/>
+    <row r="485" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B485" s="9"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="1"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="1"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="1"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="1"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B490" s="9"/>
-    </row>
-    <row r="491" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B490" s="1"/>
+      <c r="F490" s="8"/>
+    </row>
+    <row r="491" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="9"/>
     </row>
-    <row r="492" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="9"/>
     </row>
-    <row r="493" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B493" s="9"/>
     </row>
-    <row r="494" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B494" s="9"/>
     </row>
-    <row r="495" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="9"/>
     </row>
-    <row r="496" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B496" s="9"/>
     </row>
-    <row r="497" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="9"/>
     </row>
-    <row r="498" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B498" s="9"/>
     </row>
-    <row r="499" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B499" s="9"/>
     </row>
-    <row r="500" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B500" s="9"/>
     </row>
-    <row r="501" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B501" s="9"/>
     </row>
-    <row r="502" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B502" s="9"/>
     </row>
-    <row r="503" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B503" s="9"/>
     </row>
-    <row r="504" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B504" s="2"/>
-    </row>
-    <row r="505" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B505" s="9"/>
-    </row>
-    <row r="506" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B504" s="9"/>
+    </row>
+    <row r="505" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B505" s="2"/>
+    </row>
+    <row r="506" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="9"/>
     </row>
-    <row r="507" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="9"/>
     </row>
-    <row r="508" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="9"/>
     </row>
-    <row r="509" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="9"/>
     </row>
-    <row r="510" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="9"/>
     </row>
-    <row r="511" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="9"/>
     </row>
-    <row r="512" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="9"/>
     </row>
-    <row r="513" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="9"/>
     </row>
-    <row r="514" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B514" s="9"/>
     </row>
-    <row r="515" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B515" s="9"/>
     </row>
-    <row r="516" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="9"/>
     </row>
-    <row r="517" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B517" s="9"/>
     </row>
-    <row r="518" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B518" s="2"/>
-    </row>
-    <row r="519" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B518" s="9"/>
+    </row>
+    <row r="519" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B519" s="2"/>
     </row>
-    <row r="520" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B520" s="9"/>
-    </row>
-    <row r="521" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B520" s="2"/>
+    </row>
+    <row r="521" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B521" s="9"/>
     </row>
-    <row r="522" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B522" s="9"/>
     </row>
-    <row r="523" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B523" s="9"/>
     </row>
-    <row r="524" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B524" s="9"/>
     </row>
-    <row r="525" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="9"/>
     </row>
-    <row r="526" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="9"/>
     </row>
-    <row r="527" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="9"/>
     </row>
-    <row r="528" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="9"/>
     </row>
-    <row r="529" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="9"/>
     </row>
-    <row r="530" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="9"/>
     </row>
-    <row r="531" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="9"/>
     </row>
-    <row r="532" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="9"/>
     </row>
-    <row r="533" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="9"/>
     </row>
-    <row r="534" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="9"/>
     </row>
-    <row r="535" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B535" s="9"/>
     </row>
-    <row r="536" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B536" s="2"/>
-    </row>
-    <row r="537" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B536" s="9"/>
+    </row>
+    <row r="537" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B538" s="9"/>
-    </row>
-    <row r="539" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B538" s="2"/>
+    </row>
+    <row r="539" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="9"/>
     </row>
-    <row r="540" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B540" s="9"/>
     </row>
-    <row r="541" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B541" s="9"/>
     </row>
-    <row r="542" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B542" s="9"/>
     </row>
-    <row r="543" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B543" s="9"/>
     </row>
-    <row r="544" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B544" s="9"/>
     </row>
-    <row r="545" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B545" s="9"/>
     </row>
-    <row r="546" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="9"/>
     </row>
-    <row r="547" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="9"/>
     </row>
-    <row r="548" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="9"/>
     </row>
-    <row r="549" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="9"/>
     </row>
-    <row r="550" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="9"/>
     </row>
-    <row r="551" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="9"/>
     </row>
-    <row r="552" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="9"/>
     </row>
-    <row r="553" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="9"/>
     </row>
-    <row r="554" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="9"/>
     </row>
-    <row r="555" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="9"/>
     </row>
-    <row r="556" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B556" s="9"/>
     </row>
-    <row r="557" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B557" s="2"/>
-    </row>
-    <row r="558" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B558" s="9"/>
-    </row>
-    <row r="559" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B557" s="9"/>
+    </row>
+    <row r="558" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B558" s="2"/>
+    </row>
+    <row r="559" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B559" s="9"/>
     </row>
-    <row r="560" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B560" s="9"/>
     </row>
-    <row r="561" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B561" s="9"/>
     </row>
-    <row r="562" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B562" s="9"/>
     </row>
-    <row r="563" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B563" s="9"/>
     </row>
-    <row r="564" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B564" s="9"/>
     </row>
-    <row r="565" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B565" s="9"/>
     </row>
-    <row r="566" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B566" s="9"/>
     </row>
-    <row r="567" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B567" s="9"/>
     </row>
-    <row r="568" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B568" s="9"/>
     </row>
-    <row r="569" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B569" s="9"/>
     </row>
-    <row r="570" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B570" s="9"/>
     </row>
-    <row r="571" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B571" s="9"/>
     </row>
-    <row r="572" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B572" s="9"/>
     </row>
-    <row r="573" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B573" s="9"/>
     </row>
-    <row r="574" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B574" s="9"/>
     </row>
-    <row r="575" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B575" s="2"/>
-    </row>
-    <row r="576" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B576" s="9"/>
-    </row>
-    <row r="577" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B575" s="9"/>
+    </row>
+    <row r="576" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B576" s="2"/>
+    </row>
+    <row r="577" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B577" s="9"/>
     </row>
-    <row r="578" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B578" s="9"/>
     </row>
-    <row r="579" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B579" s="9"/>
     </row>
-    <row r="580" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B580" s="9"/>
     </row>
-    <row r="581" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B581" s="9"/>
     </row>
-    <row r="582" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B582" s="9"/>
     </row>
-    <row r="583" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="9"/>
     </row>
-    <row r="584" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="9"/>
     </row>
-    <row r="585" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B585" s="2"/>
-    </row>
-    <row r="586" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B585" s="9"/>
+    </row>
+    <row r="586" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B586" s="2"/>
     </row>
-    <row r="587" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B587" s="2"/>
     </row>
-    <row r="588" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B588" s="9"/>
-    </row>
-    <row r="589" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B588" s="2"/>
+    </row>
+    <row r="589" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B589" s="9"/>
     </row>
-    <row r="590" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B590" s="9"/>
     </row>
-    <row r="591" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B591" s="2"/>
-    </row>
-    <row r="592" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B591" s="9"/>
+    </row>
+    <row r="592" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B592" s="2"/>
     </row>
-    <row r="593" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B593" s="9"/>
-    </row>
-    <row r="594" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B593" s="2"/>
+    </row>
+    <row r="594" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B594" s="9"/>
     </row>
-    <row r="595" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B595" s="9"/>
     </row>
-    <row r="596" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B596" s="9"/>
     </row>
-    <row r="597" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B597" s="9"/>
     </row>
-    <row r="598" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B598" s="9"/>
     </row>
-    <row r="599" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B599" s="9"/>
     </row>
-    <row r="600" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B600" s="9"/>
     </row>
-    <row r="601" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B601" s="2"/>
-    </row>
-    <row r="602" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B601" s="9"/>
+    </row>
+    <row r="602" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B602" s="2"/>
     </row>
-    <row r="603" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B603" s="9"/>
-    </row>
-    <row r="604" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B603" s="2"/>
+    </row>
+    <row r="604" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="9"/>
     </row>
-    <row r="605" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="9"/>
     </row>
-    <row r="606" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B606" s="9"/>
     </row>
-    <row r="607" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="9"/>
     </row>
-    <row r="608" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="9"/>
     </row>
-    <row r="609" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="9"/>
     </row>
-    <row r="610" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="9"/>
     </row>
-    <row r="611" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="9"/>
     </row>
-    <row r="612" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B612" s="2"/>
-    </row>
-    <row r="613" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B612" s="9"/>
+    </row>
+    <row r="613" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="2"/>
     </row>
-    <row r="614" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B614" s="2"/>
     </row>
-    <row r="615" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B615" s="2"/>
     </row>
-    <row r="616" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B616" s="9"/>
-    </row>
-    <row r="617" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B616" s="2"/>
+    </row>
+    <row r="617" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B617" s="9"/>
     </row>
-    <row r="618" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B618" s="9"/>
     </row>
-    <row r="619" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B619" s="9"/>
     </row>
-    <row r="620" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B620" s="2"/>
-    </row>
-    <row r="621" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B620" s="9"/>
+    </row>
+    <row r="621" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B621" s="2"/>
     </row>
-    <row r="622" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B622" s="2"/>
     </row>
-    <row r="623" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B623" s="2"/>
     </row>
-    <row r="624" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B624" s="2"/>
     </row>
-    <row r="625" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B625" s="2"/>
     </row>
-    <row r="626" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B626" s="9"/>
-    </row>
-    <row r="627" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B626" s="2"/>
+    </row>
+    <row r="627" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B627" s="9"/>
     </row>
-    <row r="628" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B628" s="9"/>
     </row>
-    <row r="629" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B629" s="9"/>
     </row>
-    <row r="630" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B630" s="9"/>
     </row>
-    <row r="631" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B631" s="9"/>
     </row>
-    <row r="632" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B632" s="9"/>
     </row>
-    <row r="633" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B633" s="9"/>
     </row>
-    <row r="634" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B634" s="2"/>
-    </row>
-    <row r="635" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B635" s="9"/>
-    </row>
-    <row r="636" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B634" s="9"/>
+    </row>
+    <row r="635" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B635" s="2"/>
+    </row>
+    <row r="636" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B636" s="9"/>
     </row>
-    <row r="637" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B637" s="9"/>
     </row>
-    <row r="638" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B638" s="9"/>
     </row>
-    <row r="639" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B639" s="2"/>
-    </row>
-    <row r="640" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B639" s="9"/>
+    </row>
+    <row r="640" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B640" s="2"/>
     </row>
-    <row r="641" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B641" s="2"/>
     </row>
-    <row r="642" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B642" s="2"/>
     </row>
-    <row r="643" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B643" s="2"/>
     </row>
-    <row r="644" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B644" s="9"/>
-    </row>
-    <row r="645" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B644" s="2"/>
+    </row>
+    <row r="645" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B645" s="9"/>
     </row>
-    <row r="646" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B646" s="9"/>
     </row>
-    <row r="647" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B647" s="9"/>
     </row>
-    <row r="648" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B648" s="9"/>
     </row>
-    <row r="649" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B649" s="9"/>
     </row>
-    <row r="650" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B650" s="9"/>
     </row>
-    <row r="651" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B651" s="9"/>
     </row>
-    <row r="652" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B652" s="2"/>
-    </row>
-    <row r="653" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B652" s="9"/>
+    </row>
+    <row r="653" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B653" s="2"/>
     </row>
-    <row r="654" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B654" s="9"/>
-    </row>
-    <row r="655" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B654" s="2"/>
+    </row>
+    <row r="655" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B655" s="9"/>
     </row>
-    <row r="656" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B656" s="2"/>
-    </row>
-    <row r="657" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B657" s="9"/>
-    </row>
-    <row r="658" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B656" s="9"/>
+    </row>
+    <row r="657" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B657" s="2"/>
+    </row>
+    <row r="658" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B658" s="9"/>
     </row>
-    <row r="659" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B659" s="2"/>
-    </row>
-    <row r="660" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B659" s="9"/>
+    </row>
+    <row r="660" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B660" s="2"/>
     </row>
-    <row r="661" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B661" s="2"/>
     </row>
-    <row r="662" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B662" s="2"/>
     </row>
-    <row r="663" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B663" s="2"/>
     </row>
-    <row r="664" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B664" s="9"/>
-    </row>
-    <row r="665" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B664" s="2"/>
+    </row>
+    <row r="665" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B665" s="9"/>
     </row>
-    <row r="666" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B666" s="2"/>
-    </row>
-    <row r="667" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B666" s="9"/>
+    </row>
+    <row r="667" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B667" s="2"/>
     </row>
-    <row r="668" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B668" s="2"/>
     </row>
-    <row r="669" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B669" s="2"/>
     </row>
-    <row r="670" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B670" s="2"/>
     </row>
-    <row r="671" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B671" s="2"/>
     </row>
-    <row r="672" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B672" s="2"/>
     </row>
-    <row r="673" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B673" s="9"/>
-    </row>
-    <row r="674" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B673" s="2"/>
+    </row>
+    <row r="674" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B674" s="9"/>
     </row>
-    <row r="675" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B675" s="2"/>
-    </row>
-    <row r="676" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B675" s="9"/>
+    </row>
+    <row r="676" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B676" s="2"/>
     </row>
-    <row r="677" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B677" s="2"/>
     </row>
-    <row r="678" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B678" s="9"/>
-    </row>
-    <row r="679" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B678" s="2"/>
+    </row>
+    <row r="679" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B679" s="9"/>
     </row>
-    <row r="680" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B680" s="2"/>
-    </row>
-    <row r="681" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B680" s="9"/>
+    </row>
+    <row r="681" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B681" s="2"/>
     </row>
-    <row r="682" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B682" s="2"/>
     </row>
-    <row r="683" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B683" s="2"/>
     </row>
-    <row r="684" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B684" s="9"/>
-    </row>
-    <row r="685" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B684" s="2"/>
+    </row>
+    <row r="685" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B685" s="9"/>
     </row>
-    <row r="686" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B686" s="2"/>
-    </row>
-    <row r="687" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B686" s="9"/>
+    </row>
+    <row r="687" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B687" s="2"/>
     </row>
-    <row r="688" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B688" s="9"/>
-    </row>
-    <row r="689" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B688" s="2"/>
+    </row>
+    <row r="689" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B689" s="9"/>
     </row>
-    <row r="690" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B690" s="9"/>
     </row>
-    <row r="691" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B691" s="9"/>
     </row>
-    <row r="692" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B692" s="9"/>
     </row>
-    <row r="693" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B693" s="9"/>
+    </row>
+    <row r="694" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B694" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6315,7 +6281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6327,7 +6293,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
